--- a/nodes_source_analyses/energy/households/households_space_heater_heatpump_ground_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/households/households_space_heater_heatpump_ground_water_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11210"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168AE316-2464-A245-9F2C-75031CEEE08A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030931A8-BC31-5048-A7B7-3D41D9535B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -45,7 +45,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -56,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="164">
   <si>
     <t>Source</t>
   </si>
@@ -100,9 +105,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Land use of plant in NL</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -160,19 +162,7 @@
     <t>free_co2_factor</t>
   </si>
   <si>
-    <t>forecasting_error</t>
-  </si>
-  <si>
-    <t>land_use_per_unit</t>
-  </si>
-  <si>
     <t>takes_part_in_ets</t>
-  </si>
-  <si>
-    <t>part_load_efficiency_penalty</t>
-  </si>
-  <si>
-    <t>part_load_operating_point</t>
   </si>
   <si>
     <t>electricity_output_capacity</t>
@@ -369,21 +359,6 @@
     <t>Technical</t>
   </si>
   <si>
-    <t>hours_prep_nl</t>
-  </si>
-  <si>
-    <t>hours_prod_nl</t>
-  </si>
-  <si>
-    <t>hours_place_nl</t>
-  </si>
-  <si>
-    <t>hours_maint_nl</t>
-  </si>
-  <si>
-    <t>hours_remov_nl</t>
-  </si>
-  <si>
     <r>
       <t>euro</t>
     </r>
@@ -669,19 +644,12 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1205,562 +1173,550 @@
   </borders>
   <cellStyleXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="177" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="177" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2304,7 +2260,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2741,27 +2697,29 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="25" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
     <col min="3" max="3" width="48.6640625" style="18" customWidth="1"/>
     <col min="4" max="16384" width="10.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+    <row r="1" spans="1:3" s="23" customFormat="1">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
-      <c r="B2" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="25"/>
+      <c r="B2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
@@ -2771,28 +2729,28 @@
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2807,106 +2765,106 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="82"/>
+      <c r="B9" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="77"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>63</v>
+      <c r="B11" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="83"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="86" t="s">
-        <v>65</v>
+      <c r="B13" s="78"/>
+      <c r="C13" s="81" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84" t="s">
-        <v>66</v>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="87" t="s">
-        <v>68</v>
+      <c r="B16" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="88" t="s">
-        <v>69</v>
+      <c r="B17" s="78"/>
+      <c r="C17" s="83" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="89" t="s">
-        <v>70</v>
+      <c r="B18" s="78"/>
+      <c r="C18" s="84" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="90" t="s">
-        <v>71</v>
+      <c r="B19" s="78"/>
+      <c r="C19" s="85" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="92" t="s">
-        <v>72</v>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="93" t="s">
-        <v>73</v>
+      <c r="B21" s="86"/>
+      <c r="C21" s="88" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="94" t="s">
-        <v>74</v>
+      <c r="B22" s="86"/>
+      <c r="C22" s="89" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="91"/>
-      <c r="C23" s="95" t="s">
-        <v>75</v>
+      <c r="B23" s="86"/>
+      <c r="C23" s="90" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2920,64 +2878,50 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K45"/>
+  <dimension ref="B2:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
-    <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="46.1640625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="34"/>
+    <col min="1" max="1" width="3.33203125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="46" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="31" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="31" customWidth="1"/>
+    <col min="7" max="7" width="45" style="31" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="46.1640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="184" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="187"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="2:11" ht="38" customHeight="1">
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1">
-      <c r="D5" s="32"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="35"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="172" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="174"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="175"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="177"/>
+    </row>
+    <row r="4" spans="2:10" ht="38" customHeight="1">
+      <c r="B4" s="178"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="180"/>
+    </row>
+    <row r="5" spans="2:10" ht="17" thickBot="1"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="33"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -2985,14 +2929,14 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="36"/>
-    </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="19">
-      <c r="B7" s="96"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="2:10" s="39" customFormat="1" ht="19">
+      <c r="B7" s="91"/>
       <c r="C7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="92" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -3006,713 +2950,532 @@
       <c r="I7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="103"/>
-    </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="19">
+      <c r="J7" s="98"/>
+    </row>
+    <row r="8" spans="2:10" s="39" customFormat="1" ht="19">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="28"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="42"/>
-    </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="2:10" s="39" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="28"/>
+        <v>83</v>
+      </c>
+      <c r="D9" s="27"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="42"/>
-    </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
+      <c r="J9" s="40"/>
+    </row>
+    <row r="10" spans="2:10" s="39" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
-      <c r="C10" s="121" t="s">
-        <v>96</v>
+      <c r="C10" s="114" t="s">
+        <v>86</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="41">
         <v>0.79166666666666696</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="42"/>
-    </row>
-    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="40"/>
+    </row>
+    <row r="11" spans="2:10" s="39" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="20"/>
-      <c r="C11" s="121" t="s">
-        <v>97</v>
+      <c r="C11" s="114" t="s">
+        <v>87</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="41">
         <v>0.20833333333333301</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="42"/>
-    </row>
-    <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="2:10" s="39" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="20"/>
-      <c r="C12" s="121" t="s">
-        <v>98</v>
+      <c r="C12" s="114" t="s">
+        <v>88</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="41">
         <v>1</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="42"/>
-    </row>
-    <row r="13" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="2:10" s="39" customFormat="1" ht="20" thickBot="1">
       <c r="B13" s="20"/>
-      <c r="C13" s="140" t="s">
-        <v>111</v>
+      <c r="C13" s="132" t="s">
+        <v>101</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="158">
+        <v>102</v>
+      </c>
+      <c r="E13" s="147">
         <f>'Research data'!G7</f>
         <v>0</v>
       </c>
-      <c r="F13" s="139"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="31" t="str">
+      <c r="F13" s="131"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="30" t="str">
         <f>Sources!E13</f>
         <v>ISSO 72 and Quintel calc</v>
       </c>
-      <c r="J13" s="42"/>
-    </row>
-    <row r="14" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14" spans="2:10" s="39" customFormat="1" ht="20" thickBot="1">
       <c r="B14" s="20"/>
-      <c r="C14" s="140" t="s">
-        <v>113</v>
+      <c r="C14" s="132" t="s">
+        <v>103</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="141">
+        <v>104</v>
+      </c>
+      <c r="E14" s="133">
         <f>'Research data'!G8</f>
         <v>154736.84210526317</v>
       </c>
-      <c r="F14" s="139"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="127" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" s="42"/>
-    </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1">
-      <c r="B15" s="37"/>
-      <c r="C15" s="33" t="s">
-        <v>32</v>
+      <c r="F14" s="131"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="40"/>
+    </row>
+    <row r="15" spans="2:10" ht="17" thickBot="1">
+      <c r="B15" s="35"/>
+      <c r="C15" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="41">
         <v>0</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="104"/>
-      <c r="K15" s="32"/>
-    </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1">
-      <c r="B16" s="37"/>
-      <c r="C16" s="33" t="s">
-        <v>34</v>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="99"/>
+    </row>
+    <row r="16" spans="2:10" ht="17" thickBot="1">
+      <c r="B16" s="35"/>
+      <c r="C16" s="114" t="s">
+        <v>89</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="42">
         <v>0</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="104"/>
-      <c r="K16" s="32"/>
-    </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1">
-      <c r="B17" s="37"/>
-      <c r="C17" s="121" t="s">
-        <v>99</v>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="99"/>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1">
+      <c r="B17" s="35"/>
+      <c r="C17" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="42">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="99"/>
+    </row>
+    <row r="18" spans="2:10" ht="17" thickBot="1">
+      <c r="B18" s="35"/>
+      <c r="C18" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="42">
         <v>0</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="104"/>
-      <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1">
-      <c r="B18" s="37"/>
-      <c r="C18" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="44">
-        <v>1</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="104"/>
-      <c r="K18" s="32"/>
-    </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1">
-      <c r="B19" s="37"/>
-      <c r="C19" s="33" t="s">
-        <v>37</v>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="99"/>
+    </row>
+    <row r="19" spans="2:10" ht="17" thickBot="1">
+      <c r="B19" s="35"/>
+      <c r="C19" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="31">
-        <v>0</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="104"/>
-      <c r="K19" s="32"/>
-    </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1">
-      <c r="B20" s="37"/>
-      <c r="C20" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="31">
-        <v>0</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="104"/>
-      <c r="K20" s="32"/>
-    </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1">
-      <c r="B21" s="37"/>
-      <c r="C21" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="44">
-        <v>0</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="104"/>
-    </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1">
-      <c r="B22" s="37"/>
-      <c r="C22" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="43">
+        <v>54</v>
+      </c>
+      <c r="E19" s="41">
         <f>'Research data'!G6</f>
         <v>0.01</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="104"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="37"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="104"/>
-    </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1">
-      <c r="B24" s="37"/>
-      <c r="C24" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="104"/>
-    </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1">
-      <c r="B25" s="37"/>
-      <c r="C25" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="44">
+      <c r="F19" s="32"/>
+      <c r="G19" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="32"/>
+      <c r="I19" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="99"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="35"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="G20" s="56"/>
+      <c r="J20" s="99"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1">
+      <c r="B21" s="35"/>
+      <c r="C21" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="94"/>
+      <c r="E21" s="95"/>
+      <c r="G21" s="56"/>
+      <c r="J21" s="99"/>
+    </row>
+    <row r="22" spans="2:10" ht="17" thickBot="1">
+      <c r="B22" s="35"/>
+      <c r="C22" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="42">
         <f>'Research data'!G16</f>
         <v>13904</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33" t="s">
+      <c r="F22" s="32"/>
+      <c r="G22" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="183" t="s">
-        <v>154</v>
-      </c>
-      <c r="J25" s="104"/>
-    </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1">
-      <c r="B26" s="37"/>
-      <c r="C26" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="44">
+      <c r="H22" s="32"/>
+      <c r="I22" s="171" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22" s="99"/>
+    </row>
+    <row r="23" spans="2:10" ht="17" thickBot="1">
+      <c r="B23" s="35"/>
+      <c r="C23" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="42">
         <v>0</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="104"/>
-    </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1">
-      <c r="B27" s="37"/>
-      <c r="C27" s="33" t="s">
+      <c r="F23" s="32"/>
+      <c r="G23" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="32"/>
+      <c r="I23" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="99"/>
+    </row>
+    <row r="24" spans="2:10" ht="17" thickBot="1">
+      <c r="B24" s="35"/>
+      <c r="C24" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="44">
+      <c r="D24" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="42">
         <f>'Research data'!G21</f>
         <v>0</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="183" t="s">
-        <v>154</v>
-      </c>
-      <c r="J27" s="104"/>
-    </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1">
-      <c r="B28" s="37"/>
-      <c r="C28" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="44">
+      <c r="F24" s="32"/>
+      <c r="G24" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="171" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" s="99"/>
+    </row>
+    <row r="25" spans="2:10" ht="17" thickBot="1">
+      <c r="B25" s="35"/>
+      <c r="C25" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="42">
         <v>0</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="104"/>
-    </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1">
-      <c r="B29" s="37"/>
-      <c r="C29" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="98">
+      <c r="F25" s="32"/>
+      <c r="G25" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="32"/>
+      <c r="I25" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="99"/>
+    </row>
+    <row r="26" spans="2:10" ht="17" thickBot="1">
+      <c r="B26" s="35"/>
+      <c r="C26" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="93">
         <f>'Research data'!G17</f>
         <v>100</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="80" t="str">
+      <c r="F26" s="32"/>
+      <c r="G26" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="75" t="str">
         <f>Sources!E10</f>
         <v>DHPA</v>
       </c>
-      <c r="J29" s="104"/>
-    </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1">
-      <c r="B30" s="37"/>
-      <c r="C30" s="33" t="s">
+      <c r="J26" s="99"/>
+    </row>
+    <row r="27" spans="2:10" ht="17" thickBot="1">
+      <c r="B27" s="35"/>
+      <c r="C27" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="43">
+      <c r="E27" s="41">
         <f>'Research data'!G19</f>
         <v>0</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="80" t="s">
+      <c r="F27" s="32"/>
+      <c r="G27" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="32"/>
+      <c r="I27" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="99"/>
+    </row>
+    <row r="28" spans="2:10" ht="17" thickBot="1">
+      <c r="B28" s="35"/>
+      <c r="C28" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="96">
+        <v>0</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="J30" s="104"/>
-    </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1">
-      <c r="B31" s="37"/>
-      <c r="C31" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="101">
+      <c r="H28" s="32"/>
+      <c r="I28" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="99"/>
+    </row>
+    <row r="29" spans="2:10" ht="17" thickBot="1">
+      <c r="B29" s="35"/>
+      <c r="C29" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="41">
+        <v>0.02</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="168" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" s="99"/>
+    </row>
+    <row r="30" spans="2:10" ht="17" thickBot="1">
+      <c r="B30" s="35"/>
+      <c r="C30" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="42">
         <v>0</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" s="104"/>
-    </row>
-    <row r="32" spans="2:11" ht="17" thickBot="1">
-      <c r="B32" s="37"/>
-      <c r="C32" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="43">
-        <v>0.02</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="180" t="s">
-        <v>153</v>
-      </c>
-      <c r="J32" s="104"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="99"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="35"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="J31" s="99"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="35"/>
+      <c r="C32" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="94"/>
+      <c r="E32" s="97"/>
+      <c r="J32" s="99"/>
     </row>
     <row r="33" spans="2:10" ht="17" thickBot="1">
-      <c r="B33" s="37"/>
-      <c r="C33" s="33" t="s">
-        <v>36</v>
+      <c r="B33" s="35"/>
+      <c r="C33" s="119" t="s">
+        <v>42</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="44">
+        <v>1</v>
+      </c>
+      <c r="E33" s="93">
+        <f>'Research data'!G12</f>
         <v>0</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="104"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="37"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="104"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="32"/>
+      <c r="I33" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="99"/>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1">
+      <c r="B34" s="35"/>
+      <c r="C34" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="42">
+        <f>'Research data'!G13</f>
+        <v>15</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="32"/>
+      <c r="I34" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="99"/>
     </row>
     <row r="35" spans="2:10" ht="17" thickBot="1">
-      <c r="B35" s="37"/>
-      <c r="C35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="99"/>
-      <c r="E35" s="102"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="42">
+        <v>0</v>
+      </c>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="104"/>
-    </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1">
-      <c r="B36" s="37"/>
-      <c r="C36" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="44">
-        <f>'Research data'!G11</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="33"/>
-      <c r="I36" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="104"/>
-    </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1">
-      <c r="B37" s="37"/>
-      <c r="C37" s="126" t="s">
+      <c r="I35" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="98">
-        <f>'Research data'!G12</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="113" t="s">
-        <v>52</v>
-      </c>
-      <c r="J37" s="104"/>
-    </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1">
-      <c r="B38" s="37"/>
-      <c r="C38" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="44">
-        <f>'Research data'!G13</f>
-        <v>15</v>
-      </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="33"/>
-      <c r="I38" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="J38" s="104"/>
-    </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1">
-      <c r="B39" s="37"/>
-      <c r="C39" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="44">
-        <v>0</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="122" t="s">
-        <v>52</v>
-      </c>
-      <c r="J39" s="104"/>
-    </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1">
-      <c r="B40" s="37"/>
-      <c r="C40" s="117" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="98">
-        <v>6</v>
-      </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J40" s="104"/>
-    </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1">
-      <c r="B41" s="37"/>
-      <c r="C41" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="98">
-        <v>0</v>
-      </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J41" s="104"/>
-    </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1">
-      <c r="B42" s="37"/>
-      <c r="C42" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="98">
-        <v>130</v>
-      </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J42" s="104"/>
-    </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1">
-      <c r="B43" s="37"/>
-      <c r="C43" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="98">
-        <v>4</v>
-      </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J43" s="104"/>
-    </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1">
-      <c r="B44" s="37"/>
-      <c r="C44" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="98">
-        <v>40</v>
-      </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J44" s="104"/>
-    </row>
-    <row r="45" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B45" s="38"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
+      <c r="J35" s="99"/>
+    </row>
+    <row r="36" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3730,110 +3493,110 @@
   </sheetPr>
   <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="60" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="60" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="60" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="60" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="60" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="60" customWidth="1"/>
-    <col min="9" max="10" width="8.5" style="60" customWidth="1"/>
-    <col min="11" max="14" width="16" style="60" customWidth="1"/>
-    <col min="15" max="15" width="3" style="61" customWidth="1"/>
-    <col min="16" max="16" width="60" style="60" customWidth="1"/>
-    <col min="17" max="16384" width="10.6640625" style="60"/>
+    <col min="1" max="2" width="3.5" style="56" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="56" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="56" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="56" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="56" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="56" customWidth="1"/>
+    <col min="9" max="10" width="8.5" style="56" customWidth="1"/>
+    <col min="11" max="14" width="16" style="56" customWidth="1"/>
+    <col min="15" max="15" width="3" style="57" customWidth="1"/>
+    <col min="16" max="16" width="60" style="56" customWidth="1"/>
+    <col min="17" max="16384" width="10.6640625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1"/>
     <row r="2" spans="2:16">
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="63"/>
-    </row>
-    <row r="3" spans="2:16" s="21" customFormat="1">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="59"/>
+    </row>
+    <row r="3" spans="2:16" s="14" customFormat="1">
       <c r="B3" s="20"/>
-      <c r="C3" s="109" t="s">
-        <v>78</v>
+      <c r="C3" s="104" t="s">
+        <v>73</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="109" t="s">
+      <c r="F3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" s="109" t="str">
+      <c r="G3" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="104" t="str">
         <f>Sources!E13</f>
         <v>ISSO 72 and Quintel calc</v>
       </c>
-      <c r="K3" s="109" t="str">
+      <c r="K3" s="104" t="str">
         <f>Sources!E15</f>
         <v>Warmtepompforum</v>
       </c>
-      <c r="L3" s="109" t="str">
+      <c r="L3" s="104" t="str">
         <f>Sources!E17</f>
         <v>Installand</v>
       </c>
-      <c r="M3" s="109" t="str">
+      <c r="M3" s="104" t="str">
         <f>Sources!E19</f>
         <v>Nefit</v>
       </c>
-      <c r="N3" s="109" t="s">
-        <v>154</v>
-      </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="109" t="s">
-        <v>86</v>
+      <c r="N3" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3" s="54"/>
+      <c r="P3" s="104" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="108"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="103"/>
       <c r="P4" s="9"/>
     </row>
     <row r="5" spans="2:16" ht="17" thickBot="1">
-      <c r="B5" s="65"/>
-      <c r="C5" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -3842,126 +3605,125 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="59"/>
+      <c r="P5" s="55"/>
     </row>
     <row r="6" spans="2:16" ht="17" thickBot="1">
-      <c r="B6" s="65"/>
-      <c r="C6" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="124">
+      <c r="B6" s="61"/>
+      <c r="C6" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="117">
         <f>ROUND(0.01,2)</f>
         <v>0.01</v>
       </c>
-      <c r="H6" s="136"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="59"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="55"/>
     </row>
     <row r="7" spans="2:16" ht="17" thickBot="1">
-      <c r="B7" s="65"/>
-      <c r="C7" s="138" t="s">
-        <v>111</v>
+      <c r="B7" s="61"/>
+      <c r="C7" s="130" t="s">
+        <v>101</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="139" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="157">
+        <v>102</v>
+      </c>
+      <c r="E7" s="64"/>
+      <c r="F7" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="146">
         <f>I7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="136"/>
-      <c r="I7" s="160">
+      <c r="H7" s="128"/>
+      <c r="I7" s="149">
         <f>Notes!E24</f>
         <v>0</v>
       </c>
-      <c r="J7" s="157">
+      <c r="J7" s="146">
         <f>Notes!E13</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="K7" s="157">
+      <c r="K7" s="146">
         <f>Notes!E21</f>
         <v>3.3E-3</v>
       </c>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="129"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="155"/>
+      <c r="N7" s="155"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="122"/>
     </row>
     <row r="8" spans="2:16" ht="17" thickBot="1">
-      <c r="B8" s="65"/>
-      <c r="C8" s="138" t="s">
-        <v>113</v>
+      <c r="B8" s="61"/>
+      <c r="C8" s="130" t="s">
+        <v>103</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="139" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="119">
+        <v>104</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="131" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="112">
         <f>M8</f>
         <v>154736.84210526317</v>
       </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="167">
+      <c r="H8" s="128"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="156">
         <f>Notes!E44</f>
         <v>164988.7302779865</v>
       </c>
-      <c r="M8" s="167">
+      <c r="M8" s="156">
         <f>Notes!E52</f>
         <v>154736.84210526317</v>
       </c>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="129" t="s">
-        <v>110</v>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="122" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="65"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="110"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="55"/>
     </row>
     <row r="10" spans="2:16" ht="17" thickBot="1">
-      <c r="B10" s="65"/>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -3971,23 +3733,23 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="30"/>
+      <c r="P10" s="29"/>
     </row>
     <row r="11" spans="2:16" ht="17" thickBot="1">
-      <c r="B11" s="65"/>
-      <c r="C11" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="125" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="119">
+      <c r="G11" s="112">
         <f>ROUND(0,0)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="72"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -3995,23 +3757,23 @@
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="30"/>
+      <c r="P11" s="29"/>
     </row>
     <row r="12" spans="2:16" ht="17" thickBot="1">
-      <c r="B12" s="65"/>
-      <c r="C12" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="69" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="119">
+      <c r="G12" s="112">
         <f>ROUND(0,0)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="72"/>
+      <c r="H12" s="68"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -4019,38 +3781,38 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="12"/>
-      <c r="P12" s="30"/>
+      <c r="P12" s="29"/>
     </row>
     <row r="13" spans="2:16" ht="17" thickBot="1">
-      <c r="B13" s="65"/>
-      <c r="C13" s="76" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="69" t="s">
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="119">
+      <c r="G13" s="112">
         <f>ROUND(15,0)</f>
         <v>15</v>
       </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="115"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="109"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="65"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -4059,13 +3821,13 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="59"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="55"/>
     </row>
     <row r="15" spans="2:16" ht="17" thickBot="1">
-      <c r="B15" s="65"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -4079,51 +3841,51 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="59"/>
+      <c r="P15" s="55"/>
     </row>
     <row r="16" spans="2:16" ht="17" thickBot="1">
-      <c r="B16" s="65"/>
-      <c r="C16" s="105" t="s">
-        <v>82</v>
+      <c r="B16" s="61"/>
+      <c r="C16" s="100" t="s">
+        <v>77</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="75">
+      <c r="F16" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="70">
         <f>N16</f>
         <v>13904</v>
       </c>
-      <c r="H16" s="137"/>
+      <c r="H16" s="129"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="167">
+      <c r="N16" s="156">
         <f>Notes!E65</f>
         <v>13904</v>
       </c>
-      <c r="O16" s="71"/>
-      <c r="P16" s="116"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="110"/>
     </row>
     <row r="17" spans="2:16" ht="17" thickBot="1">
-      <c r="B17" s="65"/>
-      <c r="C17" s="112" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="118" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="77">
+      <c r="B17" s="61"/>
+      <c r="C17" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="72">
         <f>I17</f>
         <v>100</v>
       </c>
-      <c r="H17" s="137"/>
-      <c r="I17" s="135">
+      <c r="H17" s="129"/>
+      <c r="I17" s="127">
         <v>100</v>
       </c>
       <c r="J17" s="12"/>
@@ -4131,91 +3893,90 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="120"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="113"/>
     </row>
     <row r="18" spans="2:16" ht="17" thickBot="1">
-      <c r="B18" s="65"/>
-      <c r="C18" s="105" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="107" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="77"/>
-      <c r="H18" s="137"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="72"/>
+      <c r="H18" s="129"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="120"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="113"/>
     </row>
     <row r="19" spans="2:16" ht="17" thickBot="1">
-      <c r="B19" s="65"/>
-      <c r="C19" s="112" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="75">
+      <c r="B19" s="61"/>
+      <c r="C19" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="70">
         <v>0</v>
       </c>
-      <c r="H19" s="137"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="116"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="110"/>
     </row>
     <row r="20" spans="2:16" ht="17" thickBot="1">
-      <c r="B20" s="65"/>
-      <c r="C20" s="105" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="134">
+      <c r="B20" s="61"/>
+      <c r="C20" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="126">
         <v>0</v>
       </c>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="30"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="29"/>
     </row>
     <row r="21" spans="2:16" ht="17" thickBot="1">
-      <c r="C21" s="60" t="str">
-        <f>Dashboard!C27</f>
+      <c r="C21" s="56" t="str">
+        <f>Dashboard!C24</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="G21" s="182">
+      <c r="G21" s="170">
         <f>N21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="135">
+      <c r="I21" s="127">
         <f>Notes!E25</f>
         <v>1500</v>
       </c>
-      <c r="J21" s="74"/>
-      <c r="N21" s="167">
+      <c r="N21" s="156">
         <v>0</v>
       </c>
     </row>
@@ -4238,368 +3999,302 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="46" customWidth="1"/>
-    <col min="11" max="11" width="66" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="45"/>
+    <col min="1" max="1" width="3.33203125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="43" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="43" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="43" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="44" customWidth="1"/>
+    <col min="11" max="11" width="66" style="43" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="171"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="159"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="172"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="160"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="50"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="172"/>
+      <c r="B4" s="48"/>
+      <c r="K4" s="160"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" s="173" t="s">
-        <v>15</v>
+      <c r="H5" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="161" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="50"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="172"/>
+      <c r="B6" s="48"/>
+      <c r="K6" s="160"/>
     </row>
     <row r="7" spans="2:11" ht="17" thickBot="1">
-      <c r="B7" s="50"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="172"/>
+      <c r="B7" s="48"/>
+      <c r="K7" s="160"/>
     </row>
     <row r="8" spans="2:11" ht="17" thickBot="1">
-      <c r="B8" s="50"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="122" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="130"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="123"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="50"/>
-      <c r="C9" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="174">
+      <c r="B9" s="48"/>
+      <c r="C9" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="162">
         <v>43800</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="174">
+      <c r="I9" s="162">
         <v>43831</v>
       </c>
-      <c r="J9" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="K9" s="172"/>
+      <c r="J9" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="160"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="50"/>
-      <c r="C10" s="131" t="str">
-        <f>Dashboard!C27</f>
+      <c r="B10" s="48"/>
+      <c r="C10" s="121" t="str">
+        <f>Dashboard!C24</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="132">
+      <c r="D10" s="121"/>
+      <c r="E10" s="121" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="124">
         <v>42948</v>
       </c>
-      <c r="J10" s="133" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="130" t="s">
-        <v>109</v>
+      <c r="J10" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="123" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="50"/>
-      <c r="C11" s="133" t="str">
+      <c r="B11" s="48"/>
+      <c r="C11" s="125" t="str">
         <f>Dashboard!C$13</f>
         <v>storage.volume</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="172"/>
+      <c r="K11" s="160"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="50"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="172"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="125"/>
+      <c r="K12" s="160"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="50"/>
-      <c r="C13" s="133" t="str">
+      <c r="B13" s="48"/>
+      <c r="C13" s="125" t="str">
         <f>Dashboard!C13</f>
         <v>storage.volume</v>
       </c>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="128" t="s">
+      <c r="D13" s="121"/>
+      <c r="E13" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="121">
+        <v>2010</v>
+      </c>
+      <c r="H13" s="121" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="124">
+        <v>42948</v>
+      </c>
+      <c r="J13" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="128">
-        <v>2010</v>
-      </c>
-      <c r="H13" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="132">
-        <v>42948</v>
-      </c>
-      <c r="J13" s="142" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" s="130"/>
+      <c r="K13" s="123"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="50"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="130"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="124"/>
+      <c r="J14"/>
+      <c r="K14" s="123"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="50"/>
-      <c r="C15" s="133" t="str">
+      <c r="B15" s="48"/>
+      <c r="C15" s="125" t="str">
         <f>Dashboard!C$13</f>
         <v>storage.volume</v>
       </c>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="132">
+      <c r="D15" s="121"/>
+      <c r="E15" s="121" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="121" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="121" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="124">
         <v>42948</v>
       </c>
-      <c r="J15" s="142" t="s">
-        <v>119</v>
-      </c>
-      <c r="K15" s="130"/>
+      <c r="J15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="123"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="50"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="172"/>
+      <c r="B16" s="48"/>
+      <c r="K16" s="160"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="50"/>
-      <c r="C17" s="54" t="str">
+      <c r="B17" s="48"/>
+      <c r="C17" s="44" t="str">
         <f>Dashboard!C$14</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="174">
+      <c r="E17" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="162">
         <v>42979</v>
       </c>
-      <c r="J17" s="175" t="s">
-        <v>142</v>
-      </c>
-      <c r="K17" s="172"/>
+      <c r="J17" s="163" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="160"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="50"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="172"/>
+      <c r="B18" s="48"/>
+      <c r="K18" s="160"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="50"/>
-      <c r="C19" s="54" t="str">
+      <c r="B19" s="48"/>
+      <c r="C19" s="44" t="str">
         <f>Dashboard!C$14</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="174">
+      <c r="E19" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="162">
         <v>42979</v>
       </c>
-      <c r="J19" s="153" t="s">
-        <v>148</v>
-      </c>
-      <c r="K19" s="172"/>
+      <c r="J19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" s="160"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="50"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="172"/>
+      <c r="B20" s="48"/>
+      <c r="K20" s="160"/>
     </row>
     <row r="21" spans="2:11" ht="17" thickBot="1">
-      <c r="B21" s="176"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="179"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="167"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4620,21 +4315,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="143" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="143" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="143" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="143" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="143" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" style="143" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="143" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" style="143"/>
-    <col min="10" max="10" width="136.33203125" style="143" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="143"/>
+    <col min="1" max="1" width="3.5" style="134" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="134" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="134" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="134" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="134" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" style="134" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="134" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="134"/>
+    <col min="10" max="10" width="136.33203125" style="134" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="134"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="17" thickBot="1"/>
     <row r="3" spans="2:10">
-      <c r="B3" s="144"/>
+      <c r="B3" s="135"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -4642,1277 +4337,866 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="145"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="96"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="146"/>
+      <c r="J4" s="137"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="147"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="149"/>
+      <c r="B5" s="138"/>
+      <c r="J5" s="139"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="147"/>
+      <c r="B6" s="138"/>
       <c r="C6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="G6" s="134" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="139"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="138"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="134" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="140">
+        <v>10</v>
+      </c>
+      <c r="F7" s="140" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="139"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="138"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="140">
+        <v>10</v>
+      </c>
+      <c r="F8" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148" t="s">
+      <c r="J8" s="139"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="138"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="134" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="140">
+        <v>4.18</v>
+      </c>
+      <c r="F9" s="140" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="139"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="138"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="134" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="140">
+        <v>10</v>
+      </c>
+      <c r="F10" s="140" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="134" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" s="139"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="138"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="149"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="147"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="148" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="150">
-        <v>10</v>
-      </c>
-      <c r="F7" s="150" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="147"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="148" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="150">
-        <v>10</v>
-      </c>
-      <c r="F8" s="150" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="147"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="148" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="150">
-        <v>4.18</v>
-      </c>
-      <c r="F9" s="150" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="147"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="148" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="150">
-        <v>10</v>
-      </c>
-      <c r="F10" s="150" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="148" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="149"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="147"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="148" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="151">
+      <c r="E11" s="141">
         <f>E7*60*E8/E9/E10</f>
         <v>143.54066985645935</v>
       </c>
-      <c r="F11" s="150" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="149"/>
+      <c r="F11" s="140" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="139"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="147"/>
+      <c r="B12" s="138"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="148" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="151">
+      <c r="D12" s="134" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="141">
         <v>3600000</v>
       </c>
-      <c r="F12" s="150" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="149"/>
+      <c r="F12" s="140" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="139"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="147"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="152" t="str">
+      <c r="D13" s="142" t="str">
         <f>Dashboard!C$13</f>
         <v>storage.volume</v>
       </c>
-      <c r="E13" s="150">
+      <c r="E13" s="140">
         <f>MROUND(E11*E10*E9/E12,0.0001)</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="F13" s="159" t="str">
+      <c r="F13" s="148" t="str">
         <f>Dashboard!D$13</f>
         <v>MWh</v>
       </c>
-      <c r="G13" s="148"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
+      <c r="H13"/>
+      <c r="J13" s="139"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="147"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="149"/>
+      <c r="J14" s="139"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="147"/>
+      <c r="B15" s="138"/>
       <c r="C15" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="134" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="140">
+        <v>20</v>
+      </c>
+      <c r="F15" s="140" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="139"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="138"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="140">
+        <v>10</v>
+      </c>
+      <c r="F16" s="140" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="139"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="138"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="134" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="140">
+        <v>4.18</v>
+      </c>
+      <c r="F17" s="140" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="139"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="138"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="148" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="150">
-        <v>20</v>
-      </c>
-      <c r="F15" s="150" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="149"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="147"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="148" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="150">
+      <c r="E18" s="140">
         <v>10</v>
       </c>
-      <c r="F16" s="150" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="149"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="147"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="148" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="150">
-        <v>4.18</v>
-      </c>
-      <c r="F17" s="150" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="149"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="147"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="148" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="150">
-        <v>10</v>
-      </c>
-      <c r="F18" s="150" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="148" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="149"/>
+      <c r="F18" s="140" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="134" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="139"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="147"/>
+      <c r="B19" s="138"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="148" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="151">
+      <c r="D19" s="134" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="141">
         <f>E15*60*E16/E17/E18</f>
         <v>287.08133971291869</v>
       </c>
-      <c r="F19" s="150" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="149"/>
+      <c r="F19" s="140" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="139"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="147"/>
+      <c r="B20" s="138"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="148" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="151">
+      <c r="D20" s="134" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="141">
         <v>3600000</v>
       </c>
-      <c r="F20" s="150" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="F20" s="140" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="139"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="147"/>
+      <c r="B21" s="138"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="152" t="str">
+      <c r="D21" s="142" t="str">
         <f>Dashboard!C$13</f>
         <v>storage.volume</v>
       </c>
-      <c r="E21" s="150">
+      <c r="E21" s="140">
         <f>MROUND(E19*E18*E17/E20,0.0001)</f>
         <v>3.3E-3</v>
       </c>
-      <c r="F21" s="159" t="str">
+      <c r="F21" s="148" t="str">
         <f>Dashboard!D$13</f>
         <v>MWh</v>
       </c>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="J21" s="139"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="147"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="149"/>
+      <c r="B22" s="138"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="147"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="149"/>
+      <c r="B23" s="138"/>
+      <c r="J23" s="139"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="147"/>
+      <c r="B24" s="138"/>
       <c r="C24" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="152" t="str">
+        <v>96</v>
+      </c>
+      <c r="D24" s="142" t="str">
         <f>Dashboard!C$13</f>
         <v>storage.volume</v>
       </c>
-      <c r="E24" s="143">
+      <c r="E24" s="134">
         <v>0</v>
       </c>
-      <c r="F24" s="159" t="str">
+      <c r="F24" s="148" t="str">
         <f>Dashboard!D$13</f>
         <v>MWh</v>
       </c>
-      <c r="G24" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="H24" s="148"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="149"/>
+      <c r="G24" s="134" t="s">
+        <v>125</v>
+      </c>
+      <c r="J24" s="139"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="147"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="148" t="str">
-        <f>Dashboard!C27</f>
+      <c r="B25" s="138"/>
+      <c r="D25" s="134" t="str">
+        <f>Dashboard!C24</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="134">
         <v>1500</v>
       </c>
-      <c r="F25" s="148" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="149"/>
+      <c r="F25" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="139"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="147"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="148">
+      <c r="B26" s="138"/>
+      <c r="D26" s="134" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="134">
         <v>13000</v>
       </c>
-      <c r="F26" s="148" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="148"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="149"/>
+      <c r="F26" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="139"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="147"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="148" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" s="168">
+      <c r="B27" s="138"/>
+      <c r="D27" s="134" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="157">
         <v>253.6</v>
       </c>
-      <c r="F27" s="148" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="148" t="s">
-        <v>151</v>
-      </c>
-      <c r="H27" s="148"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="149"/>
+      <c r="F27" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="134" t="s">
+        <v>141</v>
+      </c>
+      <c r="J27" s="139"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="147"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="169" t="str">
-        <f>Dashboard!C25</f>
+      <c r="B28" s="138"/>
+      <c r="D28" s="49" t="str">
+        <f>Dashboard!C22</f>
         <v>initial_investment</v>
       </c>
-      <c r="E28" s="170">
+      <c r="E28" s="158">
         <f>E26-E27</f>
         <v>12746.4</v>
       </c>
-      <c r="F28" s="148" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="149"/>
+      <c r="F28" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="139"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="147"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="149"/>
+      <c r="B29" s="138"/>
+      <c r="J29" s="139"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="147"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="149"/>
+      <c r="B30" s="138"/>
+      <c r="J30" s="139"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="147"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="149"/>
+      <c r="B31" s="138"/>
+      <c r="J31" s="139"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="147"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="149"/>
+      <c r="B32" s="138"/>
+      <c r="J32" s="139"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="147"/>
-      <c r="C33" s="165" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="165"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="149"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="154" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="154"/>
+      <c r="J33" s="139"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="147"/>
-      <c r="C34" s="148"/>
-      <c r="D34" s="148" t="s">
-        <v>137</v>
+      <c r="B34" s="138"/>
+      <c r="D34" s="134" t="s">
+        <v>127</v>
       </c>
       <c r="E34">
         <v>4.18</v>
       </c>
       <c r="F34" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="149"/>
+        <v>117</v>
+      </c>
+      <c r="J34" s="139"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="147"/>
-      <c r="C35" s="148"/>
-      <c r="D35" s="148" t="s">
-        <v>136</v>
+      <c r="B35" s="138"/>
+      <c r="D35" s="134" t="s">
+        <v>126</v>
       </c>
       <c r="E35">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>129</v>
-      </c>
-      <c r="G35" s="148"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="149"/>
+        <v>119</v>
+      </c>
+      <c r="J35" s="139"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="147"/>
-      <c r="C36" s="148"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="148">
+      <c r="B36" s="138"/>
+      <c r="E36" s="134">
         <f>E34*E35</f>
         <v>41.8</v>
       </c>
-      <c r="F36" s="148" t="s">
-        <v>138</v>
-      </c>
-      <c r="G36" s="148"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="149"/>
+      <c r="F36" s="134" t="s">
+        <v>128</v>
+      </c>
+      <c r="J36" s="139"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="147"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148">
+      <c r="B37" s="138"/>
+      <c r="E37" s="134">
         <v>3600000</v>
       </c>
-      <c r="F37" s="148" t="s">
-        <v>139</v>
-      </c>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="149"/>
+      <c r="F37" s="134" t="s">
+        <v>129</v>
+      </c>
+      <c r="J37" s="139"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="147"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="161">
+      <c r="B38" s="138"/>
+      <c r="E38" s="150">
         <f>E36/E37</f>
         <v>1.161111111111111E-5</v>
       </c>
-      <c r="F38" s="148" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="149"/>
+      <c r="F38" s="134" t="s">
+        <v>130</v>
+      </c>
+      <c r="J38" s="139"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="147"/>
-      <c r="C39" s="148"/>
-      <c r="D39" s="148"/>
-      <c r="E39" s="143">
+      <c r="B39" s="138"/>
+      <c r="E39" s="134">
         <v>500</v>
       </c>
-      <c r="F39" s="143" t="s">
-        <v>132</v>
-      </c>
-      <c r="G39" s="148"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="149"/>
+      <c r="F39" s="134" t="s">
+        <v>122</v>
+      </c>
+      <c r="J39" s="139"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="147"/>
-      <c r="C40" s="148"/>
-      <c r="D40" s="148" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="148">
+      <c r="B40" s="138"/>
+      <c r="D40" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="134">
         <v>1159</v>
       </c>
-      <c r="F40" s="143" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="149"/>
+      <c r="F40" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="139"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="147"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="148" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" s="162">
+      <c r="B41" s="138"/>
+      <c r="D41" s="134" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="151">
         <f>E40/1.21</f>
         <v>957.85123966942149</v>
       </c>
-      <c r="F41" s="143" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="149"/>
+      <c r="F41" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="139"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="147"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="148" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" s="164">
+      <c r="B42" s="138"/>
+      <c r="D42" s="134" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="153">
         <f>E41/E39</f>
         <v>1.9157024793388431</v>
       </c>
-      <c r="F42" s="143" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42" s="148"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="149"/>
+      <c r="F42" s="134" t="s">
+        <v>131</v>
+      </c>
+      <c r="J42" s="139"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="147"/>
-      <c r="C43" s="148"/>
-      <c r="G43" s="148"/>
-      <c r="H43" s="148"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="149"/>
+      <c r="B43" s="138"/>
+      <c r="J43" s="139"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="147"/>
-      <c r="C44" s="148"/>
-      <c r="D44" s="152" t="str">
+      <c r="B44" s="138"/>
+      <c r="D44" s="142" t="str">
         <f>Dashboard!C$14</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="E44" s="163">
+      <c r="E44" s="152">
         <f>E42/E38</f>
         <v>164988.7302779865</v>
       </c>
-      <c r="F44" s="148" t="s">
-        <v>114</v>
-      </c>
-      <c r="G44" s="148"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="149"/>
+      <c r="F44" s="134" t="s">
+        <v>104</v>
+      </c>
+      <c r="J44" s="139"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="147"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="152"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="149"/>
+      <c r="B45" s="138"/>
+      <c r="D45" s="142"/>
+      <c r="E45"/>
+      <c r="J45" s="139"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="147"/>
-      <c r="C46" s="148"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="153"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="148"/>
-      <c r="J46" s="149"/>
+      <c r="B46" s="138"/>
+      <c r="D46" s="142"/>
+      <c r="E46"/>
+      <c r="J46" s="139"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="147"/>
-      <c r="C47" s="148"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="153"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="148"/>
-      <c r="J47" s="149"/>
+      <c r="B47" s="138"/>
+      <c r="D47" s="142"/>
+      <c r="E47"/>
+      <c r="J47" s="139"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="147"/>
+      <c r="B48" s="138"/>
       <c r="C48" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="148"/>
-      <c r="E48" s="143">
+        <v>137</v>
+      </c>
+      <c r="E48" s="134">
         <v>300</v>
       </c>
-      <c r="F48" s="143" t="s">
-        <v>132</v>
-      </c>
-      <c r="G48" s="148"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="148"/>
-      <c r="J48" s="149"/>
+      <c r="F48" s="134" t="s">
+        <v>122</v>
+      </c>
+      <c r="J48" s="139"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="147"/>
-      <c r="C49" s="148"/>
-      <c r="D49" s="148" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="162">
+      <c r="B49" s="138"/>
+      <c r="D49" s="134" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="151">
         <v>539</v>
       </c>
-      <c r="F49" s="143" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" s="148"/>
-      <c r="H49" s="148"/>
-      <c r="I49" s="148"/>
-      <c r="J49" s="149"/>
+      <c r="F49" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49" s="139"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="147"/>
-      <c r="C50" s="148"/>
-      <c r="D50" s="148" t="s">
-        <v>146</v>
-      </c>
-      <c r="E50" s="164">
+      <c r="B50" s="138"/>
+      <c r="D50" s="134" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" s="153">
         <f>E49/E48</f>
         <v>1.7966666666666666</v>
       </c>
-      <c r="F50" s="143" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50" s="148"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="148"/>
-      <c r="J50" s="149"/>
+      <c r="F50" s="134" t="s">
+        <v>131</v>
+      </c>
+      <c r="J50" s="139"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="147"/>
-      <c r="C51" s="148"/>
-      <c r="G51" s="148"/>
-      <c r="H51" s="148"/>
-      <c r="I51" s="148"/>
-      <c r="J51" s="149"/>
+      <c r="B51" s="138"/>
+      <c r="J51" s="139"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="147"/>
-      <c r="C52" s="148"/>
-      <c r="D52" s="152" t="str">
+      <c r="B52" s="138"/>
+      <c r="D52" s="142" t="str">
         <f>Dashboard!C$14</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="E52" s="163">
+      <c r="E52" s="152">
         <f>E50/E38</f>
         <v>154736.84210526317</v>
       </c>
-      <c r="F52" s="148" t="s">
-        <v>114</v>
-      </c>
-      <c r="G52" s="148"/>
-      <c r="H52" s="148"/>
-      <c r="I52" s="148"/>
-      <c r="J52" s="149"/>
+      <c r="F52" s="134" t="s">
+        <v>104</v>
+      </c>
+      <c r="J52" s="139"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="147"/>
-      <c r="C53" s="148"/>
-      <c r="G53" s="148"/>
-      <c r="H53" s="148"/>
-      <c r="I53" s="148"/>
-      <c r="J53" s="149"/>
+      <c r="B53" s="138"/>
+      <c r="J53" s="139"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="147"/>
-      <c r="C54" s="148"/>
-      <c r="D54" s="152"/>
-      <c r="E54" s="153"/>
-      <c r="F54" s="148"/>
-      <c r="G54" s="148"/>
-      <c r="H54" s="148"/>
-      <c r="I54" s="148"/>
-      <c r="J54" s="149"/>
+      <c r="B54" s="138"/>
+      <c r="D54" s="142"/>
+      <c r="E54"/>
+      <c r="J54" s="139"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="147"/>
+      <c r="B55" s="138"/>
       <c r="C55" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D55" s="148"/>
-      <c r="E55" s="148"/>
-      <c r="F55" s="148"/>
-      <c r="G55" s="148"/>
-      <c r="H55" s="148"/>
-      <c r="I55" s="148"/>
-      <c r="J55" s="149"/>
+        <v>145</v>
+      </c>
+      <c r="J55" s="139"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="147"/>
-      <c r="C56" s="148"/>
-      <c r="D56" s="148"/>
-      <c r="E56" s="148"/>
-      <c r="F56" s="148"/>
-      <c r="G56" s="148"/>
-      <c r="H56" s="148"/>
-      <c r="I56" s="148"/>
-      <c r="J56" s="149"/>
+      <c r="B56" s="138"/>
+      <c r="J56" s="139"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="147"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="181" t="s">
-        <v>156</v>
-      </c>
-      <c r="E57" s="181">
+      <c r="B57" s="138"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="169" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" s="169">
         <v>4628</v>
       </c>
-      <c r="F57" s="181" t="s">
-        <v>157</v>
-      </c>
-      <c r="G57" s="181" t="s">
-        <v>169</v>
-      </c>
-      <c r="H57" s="148"/>
-      <c r="I57" s="148"/>
-      <c r="J57" s="149"/>
+      <c r="F57" s="169" t="s">
+        <v>147</v>
+      </c>
+      <c r="G57" s="169" t="s">
+        <v>159</v>
+      </c>
+      <c r="J57" s="139"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="147"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="181" t="s">
-        <v>158</v>
-      </c>
-      <c r="E58" s="181">
+      <c r="B58" s="138"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="169" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" s="169">
         <v>573</v>
       </c>
-      <c r="F58" s="181" t="s">
-        <v>159</v>
-      </c>
-      <c r="G58" s="181" t="s">
-        <v>171</v>
-      </c>
-      <c r="H58" s="148"/>
-      <c r="I58" s="148"/>
-      <c r="J58" s="149"/>
+      <c r="F58" s="169" t="s">
+        <v>149</v>
+      </c>
+      <c r="G58" s="169" t="s">
+        <v>161</v>
+      </c>
+      <c r="J58" s="139"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="147"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="181" t="s">
-        <v>160</v>
-      </c>
-      <c r="E59" s="181">
+      <c r="B59" s="138"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="169" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="169">
         <f>E57+E58*E8</f>
         <v>10358</v>
       </c>
-      <c r="F59" s="181"/>
-      <c r="G59" s="181"/>
-      <c r="H59" s="148"/>
-      <c r="I59" s="148"/>
-      <c r="J59" s="149"/>
+      <c r="F59" s="169"/>
+      <c r="G59" s="169"/>
+      <c r="J59" s="139"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="147"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="181"/>
-      <c r="E60" s="181"/>
-      <c r="F60" s="181"/>
-      <c r="G60" s="181"/>
-      <c r="H60" s="148"/>
-      <c r="I60" s="148"/>
-      <c r="J60" s="149"/>
+      <c r="B60" s="138"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="169"/>
+      <c r="E60" s="169"/>
+      <c r="F60" s="169"/>
+      <c r="G60" s="169"/>
+      <c r="J60" s="139"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="147"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="181" t="s">
-        <v>161</v>
-      </c>
-      <c r="E61" s="181">
+      <c r="B61" s="138"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="169" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" s="169">
         <v>8460</v>
       </c>
-      <c r="F61" s="181" t="s">
-        <v>157</v>
-      </c>
-      <c r="G61" s="181" t="s">
-        <v>170</v>
-      </c>
-      <c r="H61" s="148"/>
-      <c r="I61" s="148"/>
-      <c r="J61" s="149"/>
+      <c r="F61" s="169" t="s">
+        <v>147</v>
+      </c>
+      <c r="G61" s="169" t="s">
+        <v>160</v>
+      </c>
+      <c r="J61" s="139"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="147"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="181" t="s">
+      <c r="B62" s="138"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="169" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" s="169">
+        <v>899</v>
+      </c>
+      <c r="F62" s="169" t="s">
+        <v>149</v>
+      </c>
+      <c r="G62" s="169" t="s">
         <v>162</v>
       </c>
-      <c r="E62" s="181">
-        <v>899</v>
-      </c>
-      <c r="F62" s="181" t="s">
-        <v>159</v>
-      </c>
-      <c r="G62" s="181" t="s">
-        <v>172</v>
-      </c>
-      <c r="H62" s="148"/>
-      <c r="I62" s="148"/>
-      <c r="J62" s="149"/>
+      <c r="J62" s="139"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="147"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="181" t="s">
-        <v>163</v>
-      </c>
-      <c r="E63" s="181">
+      <c r="B63" s="138"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="169" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" s="169">
         <f>E61+E62*E8</f>
         <v>17450</v>
       </c>
-      <c r="F63" s="181"/>
-      <c r="G63" s="181"/>
-      <c r="H63" s="148"/>
-      <c r="I63" s="148"/>
-      <c r="J63" s="149"/>
+      <c r="F63" s="169"/>
+      <c r="G63" s="169"/>
+      <c r="J63" s="139"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="147"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="181"/>
-      <c r="E64" s="181"/>
-      <c r="F64" s="181"/>
-      <c r="G64" s="181"/>
-      <c r="H64" s="148"/>
-      <c r="I64" s="148"/>
-      <c r="J64" s="149"/>
+      <c r="B64" s="138"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="169"/>
+      <c r="E64" s="169"/>
+      <c r="F64" s="169"/>
+      <c r="G64" s="169"/>
+      <c r="J64" s="139"/>
     </row>
     <row r="65" spans="2:10">
-      <c r="B65" s="147"/>
-      <c r="C65" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D65" s="181" t="s">
-        <v>165</v>
-      </c>
-      <c r="E65" s="181">
+      <c r="B65" s="138"/>
+      <c r="C65" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="169" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="169">
         <f>(E59+E63)/2</f>
         <v>13904</v>
       </c>
-      <c r="F65" s="181" t="s">
-        <v>166</v>
-      </c>
-      <c r="G65" s="181"/>
-      <c r="H65" s="148"/>
-      <c r="I65" s="148"/>
-      <c r="J65" s="149"/>
+      <c r="F65" s="169" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" s="169"/>
+      <c r="J65" s="139"/>
     </row>
     <row r="66" spans="2:10">
-      <c r="B66" s="147"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="181" t="s">
-        <v>167</v>
-      </c>
-      <c r="E66" s="181"/>
-      <c r="F66" s="181"/>
-      <c r="G66" s="181"/>
-      <c r="H66" s="148"/>
-      <c r="I66" s="148"/>
-      <c r="J66" s="149"/>
+      <c r="B66" s="138"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="169" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="169"/>
+      <c r="F66" s="169"/>
+      <c r="G66" s="169"/>
+      <c r="J66" s="139"/>
     </row>
     <row r="67" spans="2:10">
-      <c r="B67" s="147"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="181"/>
-      <c r="E67" s="181"/>
-      <c r="F67" s="181"/>
-      <c r="G67" s="181"/>
-      <c r="H67" s="148"/>
-      <c r="I67" s="148"/>
-      <c r="J67" s="149"/>
+      <c r="B67" s="138"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="169"/>
+      <c r="E67" s="169"/>
+      <c r="F67" s="169"/>
+      <c r="G67" s="169"/>
+      <c r="J67" s="139"/>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="147"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="181" t="s">
-        <v>168</v>
-      </c>
-      <c r="E68" s="181"/>
-      <c r="F68" s="181"/>
-      <c r="G68" s="181"/>
-      <c r="H68" s="148"/>
-      <c r="I68" s="148"/>
-      <c r="J68" s="149"/>
+      <c r="B68" s="138"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="169" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" s="169"/>
+      <c r="F68" s="169"/>
+      <c r="G68" s="169"/>
+      <c r="J68" s="139"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="147"/>
-      <c r="C69" s="148"/>
-      <c r="D69" s="148"/>
-      <c r="E69" s="148"/>
-      <c r="F69" s="148"/>
-      <c r="G69" s="148"/>
-      <c r="H69" s="148"/>
-      <c r="I69" s="148"/>
-      <c r="J69" s="149"/>
+      <c r="B69" s="138"/>
+      <c r="J69" s="139"/>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="147"/>
-      <c r="C70" s="148"/>
-      <c r="D70" s="148"/>
-      <c r="E70" s="148"/>
-      <c r="F70" s="148"/>
-      <c r="G70" s="148"/>
-      <c r="H70" s="148"/>
-      <c r="I70" s="148"/>
-      <c r="J70" s="149"/>
+      <c r="B70" s="138"/>
+      <c r="J70" s="139"/>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="147"/>
-      <c r="C71" s="148"/>
-      <c r="D71" s="148"/>
-      <c r="E71" s="148"/>
-      <c r="F71" s="148"/>
-      <c r="G71" s="148"/>
-      <c r="H71" s="148"/>
-      <c r="I71" s="148"/>
-      <c r="J71" s="149"/>
+      <c r="B71" s="138"/>
+      <c r="J71" s="139"/>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="147"/>
-      <c r="C72" s="148"/>
-      <c r="D72" s="148"/>
-      <c r="E72" s="148"/>
-      <c r="F72" s="148"/>
-      <c r="G72" s="148"/>
-      <c r="H72" s="148"/>
-      <c r="I72" s="148"/>
-      <c r="J72" s="149"/>
+      <c r="B72" s="138"/>
+      <c r="J72" s="139"/>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="147"/>
-      <c r="C73" s="148"/>
-      <c r="D73" s="148"/>
-      <c r="E73" s="148"/>
-      <c r="F73" s="148"/>
-      <c r="G73" s="148"/>
-      <c r="H73" s="148"/>
-      <c r="I73" s="148"/>
-      <c r="J73" s="149"/>
+      <c r="B73" s="138"/>
+      <c r="J73" s="139"/>
     </row>
     <row r="74" spans="2:10">
-      <c r="B74" s="147"/>
-      <c r="C74" s="148"/>
-      <c r="D74" s="148"/>
-      <c r="E74" s="148"/>
-      <c r="F74" s="148"/>
-      <c r="G74" s="148"/>
-      <c r="H74" s="148"/>
-      <c r="I74" s="148"/>
-      <c r="J74" s="149"/>
+      <c r="B74" s="138"/>
+      <c r="J74" s="139"/>
     </row>
     <row r="75" spans="2:10">
-      <c r="B75" s="147"/>
-      <c r="C75" s="148"/>
-      <c r="D75" s="148"/>
-      <c r="E75" s="148"/>
-      <c r="F75" s="148"/>
-      <c r="G75" s="148"/>
-      <c r="H75" s="148"/>
-      <c r="I75" s="148"/>
-      <c r="J75" s="149"/>
+      <c r="B75" s="138"/>
+      <c r="J75" s="139"/>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="147"/>
-      <c r="C76" s="148"/>
-      <c r="D76" s="148"/>
-      <c r="E76" s="148"/>
-      <c r="F76" s="148"/>
-      <c r="G76" s="148"/>
-      <c r="H76" s="148"/>
-      <c r="I76" s="148"/>
-      <c r="J76" s="149"/>
+      <c r="B76" s="138"/>
+      <c r="J76" s="139"/>
     </row>
     <row r="77" spans="2:10">
-      <c r="B77" s="147"/>
-      <c r="C77" s="148"/>
-      <c r="D77" s="148"/>
-      <c r="E77" s="148"/>
-      <c r="F77" s="148"/>
-      <c r="G77" s="148"/>
-      <c r="H77" s="148"/>
-      <c r="I77" s="148"/>
-      <c r="J77" s="149"/>
+      <c r="B77" s="138"/>
+      <c r="J77" s="139"/>
     </row>
     <row r="78" spans="2:10">
-      <c r="B78" s="147"/>
-      <c r="C78" s="148"/>
-      <c r="D78" s="148"/>
-      <c r="E78" s="148"/>
-      <c r="F78" s="148"/>
-      <c r="G78" s="148"/>
-      <c r="H78" s="148"/>
-      <c r="I78" s="148"/>
-      <c r="J78" s="149"/>
+      <c r="B78" s="138"/>
+      <c r="J78" s="139"/>
     </row>
     <row r="79" spans="2:10">
-      <c r="B79" s="147"/>
-      <c r="C79" s="148"/>
-      <c r="D79" s="148"/>
-      <c r="E79" s="148"/>
-      <c r="F79" s="148"/>
-      <c r="G79" s="148"/>
-      <c r="H79" s="148"/>
-      <c r="I79" s="148"/>
-      <c r="J79" s="149"/>
+      <c r="B79" s="138"/>
+      <c r="J79" s="139"/>
     </row>
     <row r="80" spans="2:10">
-      <c r="B80" s="147"/>
-      <c r="C80" s="148"/>
-      <c r="D80" s="148"/>
-      <c r="E80" s="148"/>
-      <c r="F80" s="148"/>
-      <c r="G80" s="148"/>
-      <c r="H80" s="148"/>
-      <c r="I80" s="148"/>
-      <c r="J80" s="149"/>
+      <c r="B80" s="138"/>
+      <c r="J80" s="139"/>
     </row>
     <row r="81" spans="2:10">
-      <c r="B81" s="147"/>
-      <c r="C81" s="148"/>
-      <c r="D81" s="148"/>
-      <c r="E81" s="148"/>
-      <c r="F81" s="148"/>
-      <c r="G81" s="148"/>
-      <c r="H81" s="148"/>
-      <c r="I81" s="148"/>
-      <c r="J81" s="149"/>
+      <c r="B81" s="138"/>
+      <c r="J81" s="139"/>
     </row>
     <row r="82" spans="2:10">
-      <c r="B82" s="147"/>
-      <c r="C82" s="148"/>
-      <c r="D82" s="148"/>
-      <c r="E82" s="148"/>
-      <c r="F82" s="148"/>
-      <c r="G82" s="148"/>
-      <c r="H82" s="148"/>
-      <c r="I82" s="148"/>
-      <c r="J82" s="149"/>
+      <c r="B82" s="138"/>
+      <c r="J82" s="139"/>
     </row>
     <row r="83" spans="2:10">
-      <c r="B83" s="147"/>
-      <c r="C83" s="148"/>
-      <c r="D83" s="148"/>
-      <c r="E83" s="148"/>
-      <c r="F83" s="148"/>
-      <c r="G83" s="148"/>
-      <c r="H83" s="148"/>
-      <c r="I83" s="148"/>
-      <c r="J83" s="149"/>
+      <c r="B83" s="138"/>
+      <c r="J83" s="139"/>
     </row>
     <row r="84" spans="2:10">
-      <c r="B84" s="147"/>
-      <c r="C84" s="148"/>
-      <c r="D84" s="148"/>
-      <c r="E84" s="148"/>
-      <c r="F84" s="148"/>
-      <c r="G84" s="148"/>
-      <c r="H84" s="148"/>
-      <c r="I84" s="148"/>
-      <c r="J84" s="149"/>
+      <c r="B84" s="138"/>
+      <c r="J84" s="139"/>
     </row>
     <row r="85" spans="2:10">
-      <c r="B85" s="147"/>
-      <c r="C85" s="148"/>
-      <c r="D85" s="148"/>
-      <c r="E85" s="148"/>
-      <c r="F85" s="148"/>
-      <c r="G85" s="148"/>
-      <c r="H85" s="148"/>
-      <c r="I85" s="148"/>
-      <c r="J85" s="149"/>
+      <c r="B85" s="138"/>
+      <c r="J85" s="139"/>
     </row>
     <row r="86" spans="2:10">
-      <c r="B86" s="147"/>
-      <c r="C86" s="148"/>
-      <c r="D86" s="148"/>
-      <c r="E86" s="148"/>
-      <c r="F86" s="148"/>
-      <c r="G86" s="148"/>
-      <c r="H86" s="148"/>
-      <c r="I86" s="148"/>
-      <c r="J86" s="149"/>
+      <c r="B86" s="138"/>
+      <c r="J86" s="139"/>
     </row>
     <row r="87" spans="2:10">
-      <c r="B87" s="147"/>
-      <c r="C87" s="148"/>
-      <c r="D87" s="148"/>
-      <c r="E87" s="148"/>
-      <c r="F87" s="148"/>
-      <c r="G87" s="148"/>
-      <c r="H87" s="148"/>
-      <c r="I87" s="148"/>
-      <c r="J87" s="149"/>
+      <c r="B87" s="138"/>
+      <c r="J87" s="139"/>
     </row>
     <row r="88" spans="2:10">
-      <c r="B88" s="147"/>
-      <c r="C88" s="148"/>
-      <c r="D88" s="148"/>
-      <c r="E88" s="148"/>
-      <c r="F88" s="148"/>
-      <c r="G88" s="148"/>
-      <c r="H88" s="148"/>
-      <c r="I88" s="148"/>
-      <c r="J88" s="149"/>
+      <c r="B88" s="138"/>
+      <c r="J88" s="139"/>
     </row>
     <row r="89" spans="2:10">
-      <c r="B89" s="147"/>
-      <c r="C89" s="148"/>
-      <c r="D89" s="148"/>
-      <c r="E89" s="148"/>
-      <c r="F89" s="148"/>
-      <c r="G89" s="148"/>
-      <c r="H89" s="148"/>
-      <c r="I89" s="148"/>
-      <c r="J89" s="149"/>
+      <c r="B89" s="138"/>
+      <c r="J89" s="139"/>
     </row>
     <row r="90" spans="2:10">
-      <c r="B90" s="147"/>
-      <c r="C90" s="148"/>
-      <c r="D90" s="148"/>
-      <c r="E90" s="148"/>
-      <c r="F90" s="148"/>
-      <c r="G90" s="148"/>
-      <c r="H90" s="148"/>
-      <c r="I90" s="148"/>
-      <c r="J90" s="149"/>
+      <c r="B90" s="138"/>
+      <c r="J90" s="139"/>
     </row>
     <row r="91" spans="2:10">
-      <c r="B91" s="147"/>
-      <c r="C91" s="148"/>
-      <c r="D91" s="152"/>
-      <c r="E91" s="153"/>
-      <c r="F91" s="148"/>
-      <c r="G91" s="148"/>
-      <c r="H91" s="148"/>
-      <c r="I91" s="148"/>
-      <c r="J91" s="149"/>
+      <c r="B91" s="138"/>
+      <c r="D91" s="142"/>
+      <c r="E91"/>
+      <c r="J91" s="139"/>
     </row>
     <row r="92" spans="2:10">
-      <c r="B92" s="147"/>
+      <c r="B92" s="138"/>
       <c r="C92" s="14"/>
-      <c r="F92" s="153"/>
-      <c r="G92" s="148"/>
-      <c r="H92" s="148"/>
-      <c r="I92" s="148"/>
-      <c r="J92" s="149"/>
+      <c r="F92"/>
+      <c r="J92" s="139"/>
     </row>
     <row r="93" spans="2:10" ht="17" thickBot="1">
-      <c r="B93" s="154"/>
-      <c r="C93" s="155"/>
-      <c r="D93" s="155"/>
-      <c r="E93" s="155"/>
-      <c r="F93" s="155"/>
-      <c r="G93" s="155"/>
-      <c r="H93" s="155"/>
-      <c r="I93" s="155"/>
-      <c r="J93" s="156"/>
+      <c r="B93" s="143"/>
+      <c r="C93" s="144"/>
+      <c r="D93" s="144"/>
+      <c r="E93" s="144"/>
+      <c r="F93" s="144"/>
+      <c r="G93" s="144"/>
+      <c r="H93" s="144"/>
+      <c r="I93" s="144"/>
+      <c r="J93" s="145"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
